--- a/output.xlsx
+++ b/output.xlsx
@@ -676,7 +676,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -808,7 +812,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -878,7 +886,11 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -948,7 +960,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -3452,7 +3468,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -3514,7 +3534,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -3642,7 +3666,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -3708,7 +3736,11 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\Itw project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380906E-2F0F-45F9-BF0E-E2F6CB077173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3413125-8210-4707-8306-478D44862EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="49">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -537,137 +534,137 @@
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
@@ -675,22 +672,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
@@ -698,22 +707,34 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -721,25 +742,34 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -747,22 +777,34 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
@@ -770,22 +812,34 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
@@ -793,19 +847,34 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
@@ -813,22 +882,34 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
@@ -836,22 +917,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -862,22 +952,34 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
@@ -885,22 +987,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
@@ -908,19 +1022,34 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
@@ -928,22 +1057,34 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
@@ -951,21 +1092,30 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14" t="s">
@@ -977,22 +1127,34 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
@@ -1000,22 +1162,34 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1023,19 +1197,34 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1043,22 +1232,34 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1066,25 +1267,34 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1092,22 +1302,34 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1115,22 +1337,34 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1138,19 +1372,34 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1158,22 +1407,34 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1181,21 +1442,30 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
         <v>44</v>
       </c>
       <c r="K24" t="s">
@@ -1207,22 +1477,34 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1230,22 +1512,34 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1253,19 +1547,34 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1273,22 +1582,34 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1296,7 +1617,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1305,13 +1626,22 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
@@ -1322,22 +1652,34 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1345,22 +1687,34 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1368,19 +1722,34 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
         <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1388,22 +1757,34 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1411,25 +1792,34 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
         <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1437,22 +1827,34 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1460,22 +1862,34 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1483,19 +1897,34 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1503,22 +1932,34 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" t="s">
         <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1526,22 +1967,31 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
       </c>
       <c r="K39" t="s">
         <v>44</v>
@@ -1552,22 +2002,34 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1575,22 +2037,34 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
       </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1598,19 +2072,34 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s">
         <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1618,22 +2107,34 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>43</v>
       </c>
       <c r="K43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1641,21 +2142,30 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="K44" t="s">
@@ -1667,22 +2177,34 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1690,22 +2212,34 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s">
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1713,19 +2247,34 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
       </c>
       <c r="K47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -1733,22 +2282,34 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1756,25 +2317,34 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
         <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" t="s">
+        <v>43</v>
       </c>
       <c r="K49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1782,22 +2352,34 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1805,22 +2387,34 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
       </c>
       <c r="K51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1828,19 +2422,34 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1848,22 +2457,34 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s">
+        <v>43</v>
       </c>
       <c r="K53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -1871,21 +2492,30 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" t="s">
         <v>44</v>
       </c>
       <c r="K54" t="s">
@@ -1897,22 +2527,34 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1920,22 +2562,34 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
         <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1943,19 +2597,34 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
       </c>
       <c r="K57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -1963,22 +2632,34 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
         <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -1986,22 +2667,31 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
       </c>
       <c r="K59" t="s">
         <v>44</v>
@@ -2012,22 +2702,34 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2035,22 +2737,34 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
       </c>
       <c r="K61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2058,19 +2772,34 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" t="s">
         <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2078,22 +2807,34 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
       </c>
       <c r="K63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2101,25 +2842,34 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s">
         <v>44</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2129,13 +2879,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2262,126 +3014,108 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2391,13 +3125,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2524,126 +3260,108 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2653,13 +3371,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2786,126 +3506,108 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2915,13 +3617,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,126 +3752,108 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3177,13 +3863,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3310,126 +3998,108 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\Itw project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3413125-8210-4707-8306-478D44862EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="Sheet_name_5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet_name_6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -156,26 +150,26 @@
     <t>Raj Aryan</t>
   </si>
   <si>
+    <t>Hemanshu</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Prateek</t>
+  </si>
+  <si>
     <t>Present</t>
   </si>
   <si>
     <t>Absent</t>
-  </si>
-  <si>
-    <t>Hemanshu</t>
-  </si>
-  <si>
-    <t>Krish</t>
-  </si>
-  <si>
-    <t>Prateek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +180,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,14 +232,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -530,16 +519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -675,139 +662,139 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>6</v>
       </c>
@@ -815,34 +802,34 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7">
         <v>7</v>
       </c>
@@ -850,34 +837,34 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8">
         <v>8</v>
       </c>
@@ -885,34 +872,37 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9">
         <v>9</v>
       </c>
@@ -920,34 +910,34 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10">
         <v>10</v>
       </c>
@@ -955,34 +945,37 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11">
         <v>11</v>
       </c>
@@ -990,34 +983,37 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1025,34 +1021,34 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1060,34 +1056,34 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1095,34 +1091,34 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1130,34 +1126,34 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1165,34 +1161,34 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1200,34 +1196,34 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1235,34 +1231,34 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1270,34 +1266,34 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1305,34 +1301,34 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1340,34 +1336,34 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1375,34 +1371,34 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1410,34 +1406,34 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1445,34 +1441,34 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1480,34 +1476,34 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1515,34 +1511,34 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1550,34 +1546,34 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1585,34 +1581,34 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1620,34 +1616,34 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1655,34 +1651,34 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1690,34 +1686,34 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1725,34 +1721,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1760,34 +1756,34 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1795,34 +1791,34 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1830,34 +1826,34 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1865,34 +1861,34 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1900,34 +1896,34 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1935,34 +1931,34 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1970,34 +1966,34 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2005,34 +2001,34 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2040,34 +2036,34 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2075,34 +2071,34 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2110,34 +2106,34 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>44</v>
       </c>
@@ -2145,34 +2141,34 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2180,34 +2176,34 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>46</v>
       </c>
@@ -2215,34 +2211,34 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2250,34 +2246,34 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2285,34 +2281,34 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2320,34 +2316,34 @@
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2355,34 +2351,34 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2390,34 +2386,34 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2425,34 +2421,34 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2460,34 +2456,34 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2495,34 +2491,34 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2530,34 +2526,34 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2565,34 +2561,34 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2600,34 +2596,34 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2635,34 +2631,34 @@
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2670,34 +2666,34 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2705,34 +2701,34 @@
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2740,34 +2736,34 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2775,34 +2771,34 @@
         <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2810,34 +2806,34 @@
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2845,49 +2841,47 @@
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3023,117 +3017,118 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3261,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3269,117 +3264,115 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3507,7 +3500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3515,117 +3508,115 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3761,117 +3752,115 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +3988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4007,102 +3996,102 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\ITW-1-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED307A4-8436-4CF9-9506-085E751103B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7EC76-0068-45AF-9DEF-2F97A2B2E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1932" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
@@ -25,150 +25,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="50">
+  <si>
+    <t>RollNo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Day4</t>
+  </si>
+  <si>
+    <t>Day5</t>
+  </si>
+  <si>
+    <t>Day6</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Day10</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>Day16</t>
+  </si>
+  <si>
+    <t>Day17</t>
+  </si>
+  <si>
+    <t>Day18</t>
+  </si>
+  <si>
+    <t>Day19</t>
+  </si>
+  <si>
+    <t>Day20</t>
+  </si>
+  <si>
+    <t>Day21</t>
+  </si>
+  <si>
+    <t>Day22</t>
+  </si>
+  <si>
+    <t>Day23</t>
+  </si>
+  <si>
+    <t>Day24</t>
+  </si>
+  <si>
+    <t>Day25</t>
+  </si>
+  <si>
+    <t>Day26</t>
+  </si>
+  <si>
+    <t>Day27</t>
+  </si>
+  <si>
+    <t>Day28</t>
+  </si>
+  <si>
+    <t>Day29</t>
+  </si>
+  <si>
+    <t>Day30</t>
+  </si>
+  <si>
+    <t>Day31</t>
+  </si>
+  <si>
+    <t>Day32</t>
+  </si>
+  <si>
+    <t>Day33</t>
+  </si>
+  <si>
+    <t>Day34</t>
+  </si>
+  <si>
+    <t>Day35</t>
+  </si>
+  <si>
+    <t>Day36</t>
+  </si>
+  <si>
+    <t>Day37</t>
+  </si>
+  <si>
+    <t>Day38</t>
+  </si>
+  <si>
+    <t>Day39</t>
+  </si>
+  <si>
+    <t>Day40</t>
+  </si>
+  <si>
+    <t>Raj Aryan</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Hemanshu</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Prateek</t>
+  </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Day1</t>
-  </si>
-  <si>
-    <t>Day2</t>
-  </si>
-  <si>
-    <t>Day3</t>
-  </si>
-  <si>
-    <t>Day4</t>
-  </si>
-  <si>
-    <t>Day5</t>
-  </si>
-  <si>
-    <t>Day6</t>
-  </si>
-  <si>
-    <t>Day7</t>
-  </si>
-  <si>
-    <t>Day8</t>
-  </si>
-  <si>
-    <t>Day9</t>
-  </si>
-  <si>
-    <t>Day10</t>
-  </si>
-  <si>
-    <t>Day11</t>
-  </si>
-  <si>
-    <t>Day12</t>
-  </si>
-  <si>
-    <t>Day13</t>
-  </si>
-  <si>
-    <t>Day14</t>
-  </si>
-  <si>
-    <t>Day15</t>
-  </si>
-  <si>
-    <t>Day16</t>
-  </si>
-  <si>
-    <t>Day17</t>
-  </si>
-  <si>
-    <t>Day18</t>
-  </si>
-  <si>
-    <t>Day19</t>
-  </si>
-  <si>
-    <t>Day20</t>
-  </si>
-  <si>
-    <t>Day21</t>
-  </si>
-  <si>
-    <t>Day22</t>
-  </si>
-  <si>
-    <t>Day23</t>
-  </si>
-  <si>
-    <t>Day24</t>
-  </si>
-  <si>
-    <t>Day25</t>
-  </si>
-  <si>
-    <t>Day26</t>
-  </si>
-  <si>
-    <t>Day27</t>
-  </si>
-  <si>
-    <t>Day28</t>
-  </si>
-  <si>
-    <t>Day29</t>
-  </si>
-  <si>
-    <t>Day30</t>
-  </si>
-  <si>
-    <t>Day31</t>
-  </si>
-  <si>
-    <t>Day32</t>
-  </si>
-  <si>
-    <t>Day33</t>
-  </si>
-  <si>
-    <t>Day34</t>
-  </si>
-  <si>
-    <t>Day35</t>
-  </si>
-  <si>
-    <t>Day36</t>
-  </si>
-  <si>
-    <t>Day37</t>
-  </si>
-  <si>
-    <t>Day38</t>
-  </si>
-  <si>
-    <t>Day39</t>
-  </si>
-  <si>
-    <t>Day40</t>
-  </si>
-  <si>
-    <t>Raj Aryan</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Absent</t>
-  </si>
-  <si>
-    <t>Hemanshu</t>
-  </si>
-  <si>
-    <t>Krish</t>
-  </si>
-  <si>
-    <t>Prateek</t>
+    <t>Sarthak</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP65"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,13 +707,16 @@
       <c r="K2" t="s">
         <v>44</v>
       </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -725,24 +734,27 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -754,7 +766,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -763,51 +775,94 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -818,7 +873,7 @@
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M23"/>
+      <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,14 +1016,32 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
@@ -976,19 +1049,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" t="s">
         <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -998,6 +1089,9 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -1005,10 +1099,25 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -1028,9 +1137,24 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1042,7 +1166,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1051,6 +1175,24 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1064,7 +1206,7 @@
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:P25"/>
+      <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,14 +1349,32 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
@@ -1222,19 +1382,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" t="s">
         <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -1244,6 +1422,9 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -1251,10 +1432,25 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -1274,9 +1470,24 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1288,7 +1499,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1297,6 +1508,24 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1310,7 +1539,7 @@
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,14 +1682,32 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
@@ -1468,19 +1715,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" t="s">
         <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -1490,6 +1755,9 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -1497,10 +1765,25 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -1520,9 +1803,24 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1534,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1543,6 +1841,24 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1555,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,14 +2015,32 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
@@ -1714,19 +2048,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
       <c r="K3" t="s">
         <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -1736,6 +2088,9 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -1743,10 +2098,25 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -1766,9 +2136,24 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1780,7 +2165,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1789,6 +2174,24 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1801,15 +2204,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AP6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\ITW-1-Group-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\New folder (4)\ITW-1-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5DFB6-4EAA-4D4A-91FF-307CBF2C10CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2A2E3D-4A55-4424-8E75-DA0365A78DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="2760" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Sheet_name_5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet_name_6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="58">
   <si>
     <t>RollNo</t>
   </si>
@@ -156,22 +156,46 @@
     <t>Raj Aryan</t>
   </si>
   <si>
+    <t>Sarthak</t>
+  </si>
+  <si>
+    <t>Hemanshu</t>
+  </si>
+  <si>
+    <t>Prateek</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Vedant</t>
+  </si>
+  <si>
+    <t>Tejas</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Abhay</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>Varun</t>
+  </si>
+  <si>
     <t>Present</t>
   </si>
   <si>
     <t>Absent</t>
-  </si>
-  <si>
-    <t>Sarthak</t>
-  </si>
-  <si>
-    <t>Hemanshu</t>
-  </si>
-  <si>
-    <t>Krish</t>
-  </si>
-  <si>
-    <t>Prateek</t>
   </si>
   <si>
     <t>RollNo.1</t>
@@ -192,7 +216,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +354,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +406,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M16"/>
+      <selection activeCell="C2" sqref="C2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -681,546 +744,506 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M16"/>
-    </sheetView>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1356,546 +1379,508 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2031,546 +2016,506 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2706,546 +2651,506 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3373,7 +3278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3381,546 +3286,506 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4048,10 +3913,10 @@
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4059,531 +3924,493 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\New folder (4)\ITW-1-Group-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\ITW-1-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2A2E3D-4A55-4424-8E75-DA0365A78DF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719AA24B-73A2-4B0D-B438-AEF513C0A308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="2760" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Sheet_name_5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet_name_6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="58">
   <si>
     <t>RollNo</t>
   </si>
@@ -156,6 +156,12 @@
     <t>Raj Aryan</t>
   </si>
   <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
     <t>Sarthak</t>
   </si>
   <si>
@@ -189,13 +195,7 @@
     <t>Naveen</t>
   </si>
   <si>
-    <t>Varun</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Absent</t>
+    <t>Tanay</t>
   </si>
   <si>
     <t>RollNo.1</t>
@@ -216,10 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,13 +563,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -744,494 +705,494 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1239,11 +1200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1379,494 +1340,464 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1874,13 +1805,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:L5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +1937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2016,494 +1945,464 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" t="s">
         <v>56</v>
       </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2513,9 +2412,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2651,494 +2550,464 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3148,9 +3017,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3286,494 +3155,464 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3783,9 +3622,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3916,7 +3755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3924,493 +3763,463 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\ITW-1-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719AA24B-73A2-4B0D-B438-AEF513C0A308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD024982-F599-45F6-A9E6-79B1DEF5ECC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="58">
   <si>
     <t>RollNo</t>
   </si>
@@ -183,19 +183,19 @@
     <t>Aditya</t>
   </si>
   <si>
+    <t>Abhay</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>Tanay</t>
+  </si>
+  <si>
     <t>Akash</t>
-  </si>
-  <si>
-    <t>Abhay</t>
-  </si>
-  <si>
-    <t>vishal</t>
-  </si>
-  <si>
-    <t>Naveen</t>
-  </si>
-  <si>
-    <t>Tanay</t>
   </si>
   <si>
     <t>RollNo.1</t>
@@ -564,7 +564,7 @@
   <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,13 +1006,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1158,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -1697,13 +1697,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1735,13 +1735,13 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -1752,45 +1752,15 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -2243,13 +2213,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2281,7 +2251,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -2302,13 +2272,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -2319,13 +2289,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2357,45 +2327,15 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -2848,13 +2788,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2886,7 +2826,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -2907,13 +2847,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -2924,13 +2864,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2945,13 +2885,13 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -2962,45 +2902,15 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -3453,13 +3363,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -3491,7 +3401,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -3512,13 +3422,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -3529,13 +3439,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -3550,13 +3460,13 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -3567,45 +3477,15 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -4061,13 +3941,13 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -4099,7 +3979,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -4120,13 +4000,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -4137,13 +4017,13 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -4158,13 +4038,13 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -4175,45 +4055,15 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj25\OneDrive\Desktop\ITW-1-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD024982-F599-45F6-A9E6-79B1DEF5ECC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08959D14-CF4C-439F-B039-1BC0BE221670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="58">
   <si>
     <t>RollNo</t>
   </si>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -790,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -904,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
@@ -1018,7 +1018,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
@@ -1094,7 +1094,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>43</v>
@@ -1170,7 +1170,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -1200,7 +1200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1355,13 +1357,13 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -1378,7 +1380,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -1399,10 +1401,10 @@
         <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
@@ -1419,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -1454,10 +1456,10 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -1466,7 +1468,7 @@
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -1478,7 +1480,7 @@
         <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
@@ -1507,16 +1509,16 @@
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>43</v>
@@ -1530,7 +1532,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -1542,16 +1544,16 @@
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -1568,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
@@ -1606,19 +1608,19 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -1630,7 +1632,7 @@
         <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
@@ -1638,13 +1640,13 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1659,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -1676,13 +1678,13 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1694,7 +1696,7 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -1703,10 +1705,10 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
         <v>43</v>
@@ -1714,13 +1716,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1735,35 +1737,95 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1921,7 +1985,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -1930,13 +1994,13 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -1965,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
@@ -2029,19 +2093,19 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -2050,13 +2114,13 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
         <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
@@ -2111,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -2161,7 +2225,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
@@ -2181,19 +2245,19 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -2213,16 +2277,16 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -2234,7 +2298,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -2251,10 +2315,10 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -2272,13 +2336,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -2289,13 +2353,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2316,29 +2380,89 @@
         <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2496,7 +2622,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -2505,13 +2631,13 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -2569,13 +2695,13 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -2651,10 +2777,10 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -2736,7 +2862,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
@@ -2762,13 +2888,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -2783,21 +2909,21 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -2809,7 +2935,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -2826,10 +2952,10 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -2838,7 +2964,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
         <v>43</v>
@@ -2847,13 +2973,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -2864,19 +2990,19 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
@@ -2885,35 +3011,95 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +3111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3080,13 +3268,13 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -3334,7 +3522,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -3343,7 +3531,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -3358,21 +3546,21 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -3384,7 +3572,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -3401,10 +3589,10 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -3422,13 +3610,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -3439,13 +3627,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -3460,35 +3648,95 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3658,13 +3908,13 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -3912,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -3921,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -3936,21 +4186,21 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -3962,7 +4212,7 @@
         <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -3979,10 +4229,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -4000,13 +4250,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -4017,13 +4267,13 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -4038,35 +4288,95 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
